--- a/data/trans_camb/P16A15-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A15-Provincia-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para bajar el colesterol en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A15-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A15-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>2.993262454410003</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8.159617539773484</v>
+        <v>8.159617539773487</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1.950482722362368</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9373715121638192</v>
+        <v>0.9842458008989239</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.8236165123979268</v>
+        <v>-0.4049775733762446</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.620643391290296</v>
+        <v>4.055813439084726</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.102228474863443</v>
+        <v>-3.516787140176455</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.889983370532984</v>
+        <v>-2.751356695890426</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2043405537834298</v>
+        <v>0.3164772477672747</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1582587394805618</v>
+        <v>0.4042336206517514</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.7903855139329446</v>
+        <v>-0.680082914087826</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.556982953716728</v>
+        <v>3.563040336001522</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.711725641887663</v>
+        <v>10.14461170797915</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.918094766933682</v>
+        <v>7.046324027907303</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.88481829296221</v>
+        <v>11.78366296521967</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.95288160135194</v>
+        <v>6.548524354352637</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.788931184228598</v>
+        <v>6.687575956214584</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>8.801594422020385</v>
+        <v>8.809053222006773</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.965768069313507</v>
+        <v>6.858462157505008</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.330911532346551</v>
+        <v>5.418093538587462</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>9.214184952936828</v>
+        <v>9.300433143716983</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.7605605627627892</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>2.073284051265219</v>
+        <v>2.07328405126522</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.2495737353907547</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.09923320848994095</v>
+        <v>0.1584616024796299</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1837902078556787</v>
+        <v>-0.1087342485768149</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.6377891698772692</v>
+        <v>0.633419979265853</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3467074927491638</v>
+        <v>-0.3473381283830864</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2907752734677508</v>
+        <v>-0.2848400232373425</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01236512220493761</v>
+        <v>0.01908567150502662</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0107369270695567</v>
+        <v>0.05222920788490104</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1200219190817827</v>
+        <v>-0.110165324682854</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.4313895329169352</v>
+        <v>0.4440379985955892</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.460141408957684</v>
+        <v>3.928665723215744</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.063769105906601</v>
+        <v>3.019251231885119</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>4.628379354496858</v>
+        <v>5.193088812973261</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.253458185437358</v>
+        <v>1.115268706935532</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.340959925230506</v>
+        <v>1.152412647630146</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.592678217462373</v>
+        <v>1.650635437801571</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.57235959522586</v>
+        <v>1.496759458636413</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.17777300857048</v>
+        <v>1.169603203416973</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.080123824811487</v>
+        <v>2.066940137152112</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.00298047477138</v>
+        <v>2.312446931424326</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2567703098077961</v>
+        <v>0.3852686690523943</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.2593135607026851</v>
+        <v>-0.7037271579462542</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.56961689680701</v>
+        <v>3.263329988785151</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.655167314467044</v>
+        <v>1.277485168763176</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.027667603972359</v>
+        <v>1.20224363784164</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>3.811289204703715</v>
+        <v>3.632269947499537</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.85011465364074</v>
+        <v>1.997568368353817</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.244894916750853</v>
+        <v>1.223015705007491</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.817509249132923</v>
+        <v>9.75146619995674</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.355050257144738</v>
+        <v>7.615904176838254</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.560388325525103</v>
+        <v>6.59106100413645</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.45524662922274</v>
+        <v>11.08925254911384</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>9.163972370922604</v>
+        <v>8.770122702759126</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.215435792051267</v>
+        <v>7.531786381153184</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>9.411224408839665</v>
+        <v>9.168897590173986</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>7.313609544620904</v>
+        <v>7.340919803399333</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.042811929875065</v>
+        <v>5.949516329968868</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.234363215943696</v>
+        <v>0.2545617017731178</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.02102670777247152</v>
+        <v>0.008956896389116287</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.04235351342013569</v>
+        <v>-0.08911936116272573</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.3732591452783816</v>
+        <v>0.3316640639250533</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1398032160355778</v>
+        <v>0.1331567031017758</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09436374663376862</v>
+        <v>0.1224079307400178</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4595363006430735</v>
+        <v>0.4363969698532483</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2201827370600778</v>
+        <v>0.2411238215586331</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1422986742777242</v>
+        <v>0.1252325979221667</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.939202721680614</v>
+        <v>1.917088461337923</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.475956313164563</v>
+        <v>1.451860562389341</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.281177215317106</v>
+        <v>1.32152535786462</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.844875237239951</v>
+        <v>1.844805361288648</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.563811255923725</v>
+        <v>1.455561434707445</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.210460345167574</v>
+        <v>1.34823845536142</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.569045346096481</v>
+        <v>1.488046299854169</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.279066476072963</v>
+        <v>1.232449400579037</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.056517244167878</v>
+        <v>0.98601234046859</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>5.107609636621968</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>7.412335268041903</v>
+        <v>7.412335268041906</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>3.295229682392564</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.545529319719799</v>
+        <v>-2.201369608529961</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.002496110336816621</v>
+        <v>0.1181578680489419</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.837126506362156</v>
+        <v>2.039152714994135</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.4185707353459444</v>
+        <v>-0.7646229585268444</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4348148736084801</v>
+        <v>-0.1470757189113951</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.081817636350044</v>
+        <v>3.31758157989434</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3318105174926751</v>
+        <v>0.1184363544423232</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.545491935578512</v>
+        <v>1.455304710286203</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>4.155762855547948</v>
+        <v>4.205309544115974</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.168269512118868</v>
+        <v>6.990350850274467</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.588243971048326</v>
+        <v>9.012018095615584</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.05714493492511</v>
+        <v>10.89567661322704</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.877084245741539</v>
+        <v>8.855376422064278</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>10.19684801101178</v>
+        <v>10.19828911703001</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>11.76186814715177</v>
+        <v>11.63165067628468</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>6.500107817555851</v>
+        <v>6.633797125883639</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>8.181018723154828</v>
+        <v>7.759867397505063</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>10.22331620724069</v>
+        <v>10.10549959438991</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.6202305668770827</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9000995049067977</v>
+        <v>0.900099504906798</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.4092213198930069</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1651815261831377</v>
+        <v>-0.21907550463591</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.002159566231803727</v>
+        <v>0.009808065713183583</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1828595197993531</v>
+        <v>0.2041568616232158</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.0724447625884439</v>
+        <v>-0.08730611037836108</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.02063151711739209</v>
+        <v>-0.02680162265502131</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3191984416511919</v>
+        <v>0.2890287300270716</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02412274141885692</v>
+        <v>0.005894521124870962</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1399472169519661</v>
+        <v>0.1415564738208989</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.3942081133817608</v>
+        <v>0.4152902895670125</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.314023899571352</v>
+        <v>1.145623768013181</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.51369317576485</v>
+        <v>1.558592406111386</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.893211254952343</v>
+        <v>1.960645005412139</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.383400425792547</v>
+        <v>1.57732520791732</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.688932110554117</v>
+        <v>1.595286374588194</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.122251821993875</v>
+        <v>2.046964855028971</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9688865520699629</v>
+        <v>1.019345666478116</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.235254796781923</v>
+        <v>1.158132344813103</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.534622938382277</v>
+        <v>1.538449020204352</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>7.898979702073622</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>7.851693566581528</v>
+        <v>7.85169356658153</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>7.121966027521184</v>
@@ -1306,7 +1306,7 @@
         <v>6.970475476906388</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>7.339835201584499</v>
+        <v>7.339835201584502</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.124796462369872</v>
+        <v>2.080886036145886</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.71426194070348</v>
+        <v>2.381906242098825</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.254243228260775</v>
+        <v>3.14247477897722</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4.423910731085712</v>
+        <v>4.409873420306192</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3.678386074418873</v>
+        <v>3.862693636265133</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>4.71220935981223</v>
+        <v>4.518930242610287</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>4.380304838278582</v>
+        <v>4.132700698635765</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>4.406786840500924</v>
+        <v>4.356233880875015</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>4.871944433002776</v>
+        <v>4.887198796475307</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.11530747302701</v>
+        <v>10.07367969276758</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.08800382045186</v>
+        <v>9.730849435501002</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11.37369656413626</v>
+        <v>10.834845856844</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.04295892044118</v>
+        <v>12.62404182178235</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>12.04947750063243</v>
+        <v>11.84567664926736</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>11.28161807503047</v>
+        <v>11.16308327750967</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>10.35138694700726</v>
+        <v>9.748377139431414</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>9.959874671052299</v>
+        <v>9.779289122550814</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>9.787717683984649</v>
+        <v>9.895880631704483</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>1.53774497443932</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>1.528539479558185</v>
+        <v>1.528539479558186</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>1.467134026741318</v>
@@ -1411,7 +1411,7 @@
         <v>1.435926781343364</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>1.512015352685745</v>
+        <v>1.512015352685746</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.3147426927707434</v>
+        <v>0.28838947756874</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.4227694109912211</v>
+        <v>0.3546191681053908</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.4666411090360383</v>
+        <v>0.4237722939837826</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.6103249652235896</v>
+        <v>0.591248120979921</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.4679130804255541</v>
+        <v>0.542144872966892</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.651186400924915</v>
+        <v>0.6002313005400514</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7197470880234307</v>
+        <v>0.653451672583647</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.691917158390459</v>
+        <v>0.6845092850066514</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.7266739710904383</v>
+        <v>0.7196171191144577</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3.163743477097445</v>
+        <v>3.016630280064013</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3.376912072630539</v>
+        <v>3.110952651517644</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.346198028521633</v>
+        <v>3.249583029967443</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>3.131055197348823</v>
+        <v>3.678346402057142</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>3.079094669333625</v>
+        <v>3.372782538736022</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>3.181901323452772</v>
+        <v>3.209599933579985</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.603275160878115</v>
+        <v>2.568319503590358</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.531582751911376</v>
+        <v>2.41052828478436</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.522377439006132</v>
+        <v>2.514164382209181</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2670935484373503</v>
+        <v>0.869777847388838</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.668754650544325</v>
+        <v>-0.9437297057184345</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.714351280312455</v>
+        <v>2.468893521587327</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6.980479742139138</v>
+        <v>6.860935498598463</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.443535056827302</v>
+        <v>1.84514235704765</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>10.50647275449009</v>
+        <v>10.15901332502591</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>5.88229753817571</v>
+        <v>5.810844210694868</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>2.269682811870069</v>
+        <v>2.323524437088548</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>8.01204521989591</v>
+        <v>7.649614105137902</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>12.41574861204247</v>
+        <v>12.82064700097155</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>10.59658122388981</v>
+        <v>11.01533245348235</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>13.28422093062662</v>
+        <v>13.55174926006895</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>19.03942160021561</v>
+        <v>19.26263793016448</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>13.59108002038071</v>
+        <v>13.6340035456548</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>19.42487173459136</v>
+        <v>19.79954159676242</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>13.90737182364311</v>
+        <v>14.0239882022465</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>10.16580677604306</v>
+        <v>10.07621875597328</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>15.12078869468695</v>
+        <v>15.24801755755258</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.07253278050954673</v>
+        <v>0.04731084263499272</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1993501671411712</v>
+        <v>-0.1340729180717556</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.232949919396303</v>
+        <v>0.1680481791475973</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.6969724108836185</v>
+        <v>0.7187878353035103</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2334922584241052</v>
+        <v>0.1222664078474597</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>1.016925714178112</v>
+        <v>1.032240784215977</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6479833501511588</v>
+        <v>0.6034381768130282</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2563241653804331</v>
+        <v>0.2352854765352146</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.8409614615528909</v>
+        <v>0.8395574800902108</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.486341435555154</v>
+        <v>2.726298134036422</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.136162359326673</v>
+        <v>2.345557560208022</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.698766949790529</v>
+        <v>2.912728621270236</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>4.986890137075918</v>
+        <v>5.26346588542039</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>4.075690473618826</v>
+        <v>3.559588308874348</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>5.49947634626683</v>
+        <v>5.45682945039418</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>2.865830041322756</v>
+        <v>2.822283978554441</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>2.040334485047972</v>
+        <v>2.169266908514073</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>3.091095812536551</v>
+        <v>3.303859575872034</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-1.944988882285569</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>5.922612853222395</v>
+        <v>5.922612853222392</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>5.23220691777048</v>
@@ -1734,7 +1734,7 @@
         <v>0.9049762152514434</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>10.72700415114602</v>
+        <v>10.72700415114603</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>3.456569228286988</v>
+        <v>3.612614940443759</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.4401995858223061</v>
+        <v>-0.6597829673887896</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>10.62308249515923</v>
+        <v>10.89065337628692</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-3.171679006618737</v>
+        <v>-3.553710118651666</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-7.649340595152992</v>
+        <v>-7.166582893650878</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>0.7128228859806913</v>
+        <v>0.6419624325333965</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.472647715434805</v>
+        <v>1.405362673826804</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.628231427507719</v>
+        <v>-2.414815784464467</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>7.370730250978731</v>
+        <v>7.502246301465497</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>13.03036731741518</v>
+        <v>14.0405334911213</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>8.169790232565296</v>
+        <v>8.113305621532028</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>20.11384482476151</v>
+        <v>20.38657411325777</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>8.186831199098386</v>
+        <v>7.486727572265521</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>3.002994615157797</v>
+        <v>3.217158243894132</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>10.90755252277475</v>
+        <v>10.48268041791279</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>9.128584123756859</v>
+        <v>8.900253770819782</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>4.157752718713997</v>
+        <v>4.281757537295508</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>14.12562764231303</v>
+        <v>14.00671082194294</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.1743389255665747</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.530872937517376</v>
+        <v>0.5308729375173756</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.6483756569432683</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.3813313136953525</v>
+        <v>0.4546246119225632</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1219560086825845</v>
+        <v>-0.1826520167781121</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1.443116199836649</v>
+        <v>1.376013825531933</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.2310347391547506</v>
+        <v>-0.2660425668367667</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5244931775934851</v>
+        <v>-0.5240647540554669</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.04461036462326412</v>
+        <v>0.04589125971340281</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1332695899201705</v>
+        <v>0.1272675756076182</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.2970318005380614</v>
+        <v>-0.2488448159356458</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.7247167574355051</v>
+        <v>0.7305031117599714</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>4.420522401434838</v>
+        <v>4.04026863177742</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2.485973999842435</v>
+        <v>2.395697896443003</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>6.86824212599505</v>
+        <v>6.808795397891853</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.001128428381429</v>
+        <v>0.8437963959073861</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.3724616986324631</v>
+        <v>0.3949807257119667</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.355629779256216</v>
+        <v>1.223493140649349</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.446928242961913</v>
+        <v>1.383597388485072</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.6203731199536217</v>
+        <v>0.7046295466909955</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>2.274614028833967</v>
+        <v>2.224930373730194</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>2.244899850222292</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>5.229232455736621</v>
+        <v>5.229232455736623</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>3.147390331520006</v>
@@ -1948,7 +1948,7 @@
         <v>1.115681557826532</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>5.917629333206818</v>
+        <v>5.917629333206821</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1.836109360116824</v>
+        <v>1.925160044603836</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.442306889392778</v>
+        <v>-0.6735379453058943</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2.369245673803722</v>
+        <v>2.038455632260928</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.05432214016251966</v>
+        <v>0.08296258992497185</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.020940554569849</v>
+        <v>-3.020604137457752</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>3.525292049279952</v>
+        <v>3.467902383642235</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>1.697311043151299</v>
+        <v>1.439923006555981</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-1.055094490397866</v>
+        <v>-0.9699384172839625</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>3.695278646900388</v>
+        <v>3.696922526020972</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>8.027731264671701</v>
+        <v>8.254581378551544</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>5.122766650799004</v>
+        <v>4.98736635674659</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>8.189463678899592</v>
+        <v>7.925001072566337</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>6.71158098817271</v>
+        <v>6.51403344983656</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.242300064913755</v>
+        <v>3.07967183196038</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>9.509886328924622</v>
+        <v>9.244350694377269</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>6.181357663287714</v>
+        <v>6.32406705217136</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.004872155399406</v>
+        <v>3.251648018008306</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>7.939404664691938</v>
+        <v>7.980813197818634</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.3923538749588332</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.9139426049966531</v>
+        <v>0.9139426049966536</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.4064600004226123</v>
@@ -2053,7 +2053,7 @@
         <v>0.1652561127617291</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.8765264725497869</v>
+        <v>0.8765264725497873</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.240017356153473</v>
+        <v>0.252005633807186</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.07306116476951913</v>
+        <v>-0.1047827083541572</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.3139160820175927</v>
+        <v>0.2884592470945663</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.01396427166312466</v>
+        <v>0.0007693239318739877</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3196955216832067</v>
+        <v>-0.322475036805526</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3400899105421109</v>
+        <v>0.3572372789476545</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2114390697802427</v>
+        <v>0.1843911852522432</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1381957583487427</v>
+        <v>-0.1296184426698389</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.4597846803892142</v>
+        <v>0.4598947572958005</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.745912125026805</v>
+        <v>1.914754841098347</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.185712218433078</v>
+        <v>1.151343687461122</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.744271200436199</v>
+        <v>1.792652611483385</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.066700056407542</v>
+        <v>1.080154661455091</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.5287001522341711</v>
+        <v>0.5198742047398399</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.542403668227178</v>
+        <v>1.553441742089381</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.068590292124633</v>
+        <v>1.088449124982983</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.5083316368607835</v>
+        <v>0.5790495554594858</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.37927369557784</v>
+        <v>1.41345647720549</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>2.274031833334611</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>3.296013223263582</v>
+        <v>3.296013223263584</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>1.279448041285677</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.387674940821252</v>
+        <v>-1.38673496880655</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>0.3049024281542423</v>
+        <v>0.5199536949095378</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1.20292862964659</v>
+        <v>1.679108227947636</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.6278971666585</v>
+        <v>-1.685894535901106</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.8979446475928582</v>
+        <v>-0.8171968864008672</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>0.4923257896720554</v>
+        <v>0.08951920678573955</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.6354988848481939</v>
+        <v>-0.956007088193536</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>0.4957020495542532</v>
+        <v>0.3853197205725755</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>1.752577585708791</v>
+        <v>1.750044060177908</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>3.964160429307957</v>
+        <v>3.747518533774087</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>5.483371373656348</v>
+        <v>5.738223695805837</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>6.613618235132964</v>
+        <v>6.815154172298625</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>4.062979256859552</v>
+        <v>4.502511730084181</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>5.370585909427432</v>
+        <v>5.510527578778722</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>6.216373705042984</v>
+        <v>5.912377980441417</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>3.304696444957873</v>
+        <v>3.100390996413674</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>4.65000896324081</v>
+        <v>4.585357613988288</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>5.463224484221321</v>
+        <v>5.500915551072741</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>0.2606968051641986</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.3778575587588676</v>
+        <v>0.3778575587588679</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.1753656918981041</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.2038972697394551</v>
+        <v>-0.2186669174536518</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.009460603334295324</v>
+        <v>0.04266195979715497</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.1539081662775993</v>
+        <v>0.2122665542032458</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.1624149086858017</v>
+        <v>-0.1597795627277095</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.09238745858138989</v>
+        <v>-0.08709681547944555</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.03648496800710932</v>
+        <v>0.001579987356221118</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.07741696922775627</v>
+        <v>-0.114512503735115</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.05509440050288249</v>
+        <v>0.04518746511067503</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.2064289161746981</v>
+        <v>0.2030569741084667</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.8655439620380988</v>
+        <v>0.8184540176147953</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>1.178734662449536</v>
+        <v>1.274758655348439</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.421166601096165</v>
+        <v>1.47804764367057</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.5548101827422923</v>
+        <v>0.6304751566373032</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.7129903831013126</v>
+        <v>0.7577968263603385</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.8643880770330353</v>
+        <v>0.8367628035620863</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.5166830981775727</v>
+        <v>0.480699306107842</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.738442267985542</v>
+        <v>0.6991304307310497</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.863375110203764</v>
+        <v>0.8958044628384576</v>
       </c>
     </row>
     <row r="52">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>3.179985886248689</v>
+        <v>3.153716880906111</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>2.306586335688661</v>
+        <v>2.296470179444824</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>4.889563014438545</v>
+        <v>4.871973067579218</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>2.927788764660521</v>
+        <v>2.747390970804986</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>1.677669653995973</v>
+        <v>1.782450689348924</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>4.722241981983939</v>
+        <v>4.759499512665812</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>3.475661726255159</v>
+        <v>3.450782855205101</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>2.298887937556774</v>
+        <v>2.345650197702372</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>5.206810586461301</v>
+        <v>5.173633753276334</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>5.818996715886779</v>
+        <v>5.846179151073374</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>4.823648873216966</v>
+        <v>4.844528449967989</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>7.378570171762864</v>
+        <v>7.447610190620944</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>5.873691305936384</v>
+        <v>5.75815203945176</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>4.601390812758085</v>
+        <v>4.637162218923409</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>7.295960473432266</v>
+        <v>7.249643176473519</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>5.502844101198869</v>
+        <v>5.4739940814287</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>4.205142030226215</v>
+        <v>4.258149790157123</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>7.026317433606426</v>
+        <v>7.058596109887162</v>
       </c>
     </row>
     <row r="55">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.4872328937839039</v>
+        <v>0.4913598367058982</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.3657300742306715</v>
+        <v>0.3665329125344056</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.7538041699755637</v>
+        <v>0.7514022585247061</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.3404342500743697</v>
+        <v>0.3135727786168055</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.1941004419552707</v>
+        <v>0.200824536419486</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.5347075045712432</v>
+        <v>0.552106100874871</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.4844033222735818</v>
+        <v>0.465414065247253</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.3093209466297671</v>
+        <v>0.3157683392436028</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.7172058749322908</v>
+        <v>0.6990210650369273</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>1.103449690597651</v>
+        <v>1.10284452246118</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.9337954324719424</v>
+        <v>0.9061728044949688</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>1.42366682624409</v>
+        <v>1.441250420583597</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.7948494763732673</v>
+        <v>0.7883760070956185</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.6442888073058989</v>
+        <v>0.625687894321299</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>1.013999835665136</v>
+        <v>1.03768573898426</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.8553800983568091</v>
+        <v>0.8592068213564386</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.6494959226710142</v>
+        <v>0.6656136031683622</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>1.103959777697377</v>
+        <v>1.106076995163356</v>
       </c>
     </row>
     <row r="58">
